--- a/cfon/cashflow_resultado.xlsx
+++ b/cfon/cashflow_resultado.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>65.93207547169811</v>
+        <v>670.0671140939597</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>39.68023255813954</v>
+        <v>377.0718232044199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>103.9684343474043</v>
+        <v>994.1288913668682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>65.41698113207548</v>
+        <v>664.8322147651007</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>165.5988372093024</v>
+        <v>1573.646408839779</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>21.2349518459069</v>
+        <v>205.0072639225182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -674,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>65.93207547169811</v>
+        <v>670.0671140939597</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -698,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>159.9554263565892</v>
+        <v>1520.018416206262</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>633.5603932584269</v>
+        <v>6116.542372881357</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -722,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -730,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>65.41698113207548</v>
+        <v>664.8322147651007</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -738,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -746,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>154.2238372093023</v>
+        <v>1465.552486187845</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -770,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>65.93207547169811</v>
+        <v>670.0671140939597</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -786,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>148.5804263565891</v>
+        <v>1411.924493554328</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -794,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -810,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>65.93207547169811</v>
+        <v>670.0671140939597</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -818,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>142.937015503876</v>
+        <v>1358.29650092081</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -834,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -850,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>65.93207547169811</v>
+        <v>670.0671140939597</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -858,7 +858,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -866,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>237.1667463756425</v>
+        <v>2247.785026771149</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -874,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>82.36630754162586</v>
+        <v>785.5768332554881</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -882,7 +882,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>65.41698113207548</v>
+        <v>664.8322147651007</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -890,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -898,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>231.8760487012239</v>
+        <v>2197.508783677226</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>458.4681684622919</v>
+        <v>4372.685660906119</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -914,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>632.5358490566039</v>
+        <v>6428.456375838927</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -922,7 +922,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>65.81782566111656</v>
+        <v>627.7440448388603</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -946,7 +946,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>43.95471698113208</v>
+        <v>446.7114093959732</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -954,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -970,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>441.9196865817826</v>
+        <v>4214.85287248949</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -978,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>610.7301886792453</v>
+        <v>6206.845637583893</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -986,7 +986,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -994,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>49.45739471106759</v>
+        <v>471.7048108360579</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>22.32075471698113</v>
+        <v>226.8456375838926</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>99.87314172447967</v>
+        <v>943.1165184838559</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1177.762977473066</v>
+        <v>11233.03129378795</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>606.0943396226415</v>
+        <v>6159.731543624161</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>101.4190476190476</v>
+        <v>1000.845864661654</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>825.3439048562933</v>
+        <v>7793.841834347217</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1196.657142857143</v>
+        <v>11809.11654135338</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>69.88701684836471</v>
+        <v>659.9532054281703</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>50.6</v>
+        <v>499.3421052631579</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>795.3577799801783</v>
+        <v>7510.678521291531</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1145.838095238095</v>
+        <v>11307.61278195489</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>39.90089197224975</v>
+        <v>376.7898923724848</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1007.195242814668</v>
+        <v>9511.090313523631</v>
       </c>
     </row>
   </sheetData>
